--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-USER_UNITS_OF_MEASURE_01_valid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-USER_UNITS_OF_MEASURE_01_valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F889CB-574A-6E42-877D-E9252DE1C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916654E1-2684-1D46-BBDF-F635F5BA6AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47380" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_NOTES" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
     <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="375">
   <si>
     <t>FIELD</t>
   </si>
@@ -1247,9 +1247,6 @@
   </si>
   <si>
     <t>A dummy unit of measure</t>
-  </si>
-  <si>
-    <t>BLOBS PER CHUNK (BPC)</t>
   </si>
   <si>
     <t>BPC</t>
@@ -3394,23 +3391,23 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
-      <selection activeCell="M20" sqref="M20"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
+      <selection activeCell="E25" sqref="E25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="70" showGridLines="0" topLeftCell="A25">
+      <selection activeCell="L19" sqref="L19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0" topLeftCell="A34">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="70" showGridLines="0" topLeftCell="A25">
-      <selection activeCell="L19" sqref="L19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
-      <selection activeCell="E25" sqref="E25"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
+      <selection activeCell="M20" sqref="M20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -3474,10 +3471,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3492,8 +3489,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3564,7 @@
         <v>356</v>
       </c>
       <c r="O1" s="95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P1" s="95" t="s">
         <v>357</v>
@@ -3588,7 +3585,7 @@
         <v>360</v>
       </c>
       <c r="V1" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W1" s="95" t="s">
         <v>361</v>
@@ -3927,33 +3924,31 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>366</v>
-      </c>
+      <c r="B15" s="33"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <autoFilter ref="B1:W14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" showAutoFilter="1" topLeftCell="N1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{D173E181-871D-554B-83B5-75451C8444E7}"/>
+      <autoFilter ref="B1:W14" xr:uid="{E7E80501-678D-E440-9D02-54D9B7BC1D17}"/>
+    </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" showAutoFilter="1">
+      <selection activeCell="R17" sqref="R17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:W14" xr:uid="{8274FE30-3641-174D-B09A-934BB7DF81B0}"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showAutoFilter="1" topLeftCell="F1">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:X1" xr:uid="{6668FD65-1D12-484E-8933-6EC7E0FB4DB0}"/>
+      <autoFilter ref="B1:X1" xr:uid="{FCA0575B-F789-BD45-9618-A612C6E9E006}"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" showAutoFilter="1">
-      <selection activeCell="R17" sqref="R17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:W14" xr:uid="{AC615C12-908A-FD42-B589-699E472E0266}"/>
-    </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="80" showAutoFilter="1" topLeftCell="N1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" showAutoFilter="1" topLeftCell="N1">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:W14" xr:uid="{FA22E1FB-B37D-5640-B71D-6A9F7CCE5457}"/>
+      <autoFilter ref="B1:W14" xr:uid="{3958CF2B-B62B-814B-893D-67C753C5A208}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
@@ -3973,7 +3968,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -3996,7 +3991,7 @@
         <v>338</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="79" t="s">
         <v>14</v>
@@ -4116,7 +4111,7 @@
         <v>335</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>339</v>
@@ -4147,10 +4142,10 @@
         <v>345</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>365</v>
@@ -4163,13 +4158,13 @@
         <v>359</v>
       </c>
       <c r="C11" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="E11" s="70" t="s">
         <v>373</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>374</v>
       </c>
       <c r="F11" s="70"/>
     </row>
@@ -6990,22 +6985,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -10676,22 +10671,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -17690,22 +17685,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -25782,22 +25777,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -26320,25 +26315,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26765,25 +26760,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26815,12 +26810,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27055,23 +27055,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27096,18 +27100,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>